--- a/out_bd_rate/excel/bdr_RitualDance_lowdelay.xlsx
+++ b/out_bd_rate/excel/bdr_RitualDance_lowdelay.xlsx
@@ -19,37 +19,37 @@
     <t>bd_rate</t>
   </si>
   <si>
+    <t>4x4-1-8x8-1</t>
+  </si>
+  <si>
     <t>4x4-1-8x8-2</t>
   </si>
   <si>
+    <t>4x4-1-8x8-3</t>
+  </si>
+  <si>
+    <t>4x4-1-8x8-SAD</t>
+  </si>
+  <si>
+    <t>4x4-2-8x8-4</t>
+  </si>
+  <si>
     <t>4x4-3-8x8-SAD</t>
   </si>
   <si>
     <t>4x4-3</t>
   </si>
   <si>
-    <t>4x4-1-8x8-SAD</t>
+    <t>8x8-1</t>
+  </si>
+  <si>
+    <t>8x8-2</t>
   </si>
   <si>
     <t>8x8-3</t>
   </si>
   <si>
-    <t>8x8-1</t>
-  </si>
-  <si>
-    <t>4x4-1-8x8-1</t>
-  </si>
-  <si>
     <t>8x8-SAD</t>
-  </si>
-  <si>
-    <t>4x4-1-8x8-3</t>
-  </si>
-  <si>
-    <t>4x4-2-8x8-4</t>
-  </si>
-  <si>
-    <t>8x8-2</t>
   </si>
 </sst>
 </file>
@@ -431,7 +431,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.3073459953197855</v>
+        <v>0.2285751817878046</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -439,7 +439,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.07514267155408483</v>
+        <v>0.2285751817878046</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -455,7 +455,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>0.1843546737095192</v>
+        <v>0.2285751817878046</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -463,7 +463,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>0.1132833716611437</v>
+        <v>0.3073459953197855</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -471,7 +471,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>0.2285751817878046</v>
+        <v>0.07514267155408483</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -479,7 +479,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>0.3166962302229681</v>
+        <v>0.1132833716611437</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -487,7 +487,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>0.2285751817878046</v>
+        <v>0.1463186101072322</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -495,7 +495,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>0.2285751817878046</v>
+        <v>0.1843546737095192</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -503,7 +503,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>0.1463186101070324</v>
+        <v>0.3166962302229681</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -519,7 +519,7 @@
         <v>2</v>
       </c>
       <c r="B14">
-        <v>0.9431941480963379</v>
+        <v>0.6757458322533161</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -527,7 +527,7 @@
         <v>3</v>
       </c>
       <c r="B15">
-        <v>0.03745345694539104</v>
+        <v>0.6757458322533161</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -543,7 +543,7 @@
         <v>5</v>
       </c>
       <c r="B17">
-        <v>0.3846168949638518</v>
+        <v>0.6757458322533161</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -551,7 +551,7 @@
         <v>6</v>
       </c>
       <c r="B18">
-        <v>0.3297543346001186</v>
+        <v>0.9431941480963379</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -559,7 +559,7 @@
         <v>7</v>
       </c>
       <c r="B19">
-        <v>0.6757458322533161</v>
+        <v>0.03745345694539104</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -567,7 +567,7 @@
         <v>8</v>
       </c>
       <c r="B20">
-        <v>0.7599993242747294</v>
+        <v>0.3297543346001186</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -575,7 +575,7 @@
         <v>9</v>
       </c>
       <c r="B21">
-        <v>0.6757458322533161</v>
+        <v>0.4185083261345257</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -583,7 +583,7 @@
         <v>10</v>
       </c>
       <c r="B22">
-        <v>0.6757458322533161</v>
+        <v>0.3846168949638518</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -591,7 +591,7 @@
         <v>11</v>
       </c>
       <c r="B23">
-        <v>0.4185083261345257</v>
+        <v>0.7599993242747294</v>
       </c>
     </row>
   </sheetData>
